--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90314A-4E36-42C4-BE37-FAF8BAD20B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4D7B4-7D16-402C-B805-A5E9DF5BA0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -178,9 +178,6 @@
 3. Understanding why people don't use the bus more / use alongside sentiment analysis</t>
   </si>
   <si>
-    <t>% frequency of Dublin bus usage  by sex, age</t>
-  </si>
-  <si>
     <t>Passenger Journeys</t>
   </si>
   <si>
@@ -320,6 +317,90 @@
   </si>
   <si>
     <t>Breakdown of passenger transportation methods across EU member states</t>
+  </si>
+  <si>
+    <t>DATAFRAME NAME</t>
+  </si>
+  <si>
+    <t>% frequency of bus usage by sex, age</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>ire_dub_bus_daily_passengers</t>
+  </si>
+  <si>
+    <t>ire_dub_bus_fleet</t>
+  </si>
+  <si>
+    <t>ire_dub_bus_monthly_passengers</t>
+  </si>
+  <si>
+    <t>ire_bus_usage</t>
+  </si>
+  <si>
+    <t>ire_reasons_for_not_using_bus</t>
+  </si>
+  <si>
+    <t>ire_transport_breakdown_by_week</t>
+  </si>
+  <si>
+    <t>ire_transport_breakdown_by_year</t>
+  </si>
+  <si>
+    <t>ire_2011_census</t>
+  </si>
+  <si>
+    <t>ire_2016_census</t>
+  </si>
+  <si>
+    <t>ire_2022_census</t>
+  </si>
+  <si>
+    <t>ire_bus_services_km</t>
+  </si>
+  <si>
+    <t>ire_travelling_time</t>
+  </si>
+  <si>
+    <t>nor_public_transport</t>
+  </si>
+  <si>
+    <t>euro_transport_methods</t>
+  </si>
+  <si>
+    <t>worldbank_gdp</t>
+  </si>
+  <si>
+    <t>worldbank_pop</t>
+  </si>
+  <si>
+    <t>worldbank_gdp_per_capita</t>
+  </si>
+  <si>
+    <t>world_bank_gdp_per_capita_NY.GDP.PCAP.CD_20231026</t>
+  </si>
+  <si>
+    <t>world_bank_population_totals_SP.POP.TOTL_20231026</t>
+  </si>
+  <si>
+    <t>world_bank_gdp_NY.GDP.MKTP.CD_20231026</t>
+  </si>
+  <si>
+    <t>FORMAT</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -369,25 +450,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -697,430 +806,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="63" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="104.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="L7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="J8" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2011</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2016</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2022</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="H16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="G17" s="2">
+        <v>11347</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="3">
-        <v>11347</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E4D7B4-7D16-402C-B805-A5E9DF5BA0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78960CBD-E365-4FAD-92D4-B3ABC51581D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -401,13 +405,115 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t>The ITF Transport Statistics database comprises statistics collected by the International Transport Forum on transport networks, equipment, freight and passenger transport, road safety and spending on infrastructure. Additionally, there are quarterly data covering road traffic, new vehicles, and fuel use. Most of the ITF data series start in 1995. However, the database also includes harmonised time series consolidated as far back as 1970.</t>
+  </si>
+  <si>
+    <t>oecd_itf_transport_statistics_2022</t>
+  </si>
+  <si>
+    <t>1991 - 2020</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Rail freight loading capacity per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Rail freight loading capacity per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Available seat capacity for scheduled flight per one thousand units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Available seat capacity for scheduled flight per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Motorised two-wheelers per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Buses per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Passenger cars per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Road tractors per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Motorised two-wheelers per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Buses per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Passenger cars per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Road tractors per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Light goods road motor vehicles per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Light goods road motor vehicles per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>Heavy goods road motor vehicles per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Heavy goods road motor vehicles per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of motorised two-wheelers per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>First registrations of buses per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>First registrations of passenger cars per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>First registrations of light goods road motor vehicles per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>First registrations of heavy goods road motor vehicles per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>First registrations of motorised two-wheelers per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of buses per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of passenger cars per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of light goods road motor vehicles per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of heavy goods road motor vehicles per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of road tractors per one thousand inhabitants</t>
+  </si>
+  <si>
+    <t>First registrations of road tractors per one million units of current USD GDP</t>
+  </si>
+  <si>
+    <t>Not Used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +529,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +547,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,10 +571,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -461,11 +586,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -483,16 +613,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -806,11 +926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +994,7 @@
         <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>120</v>
@@ -903,7 +1023,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>120</v>
@@ -931,8 +1051,8 @@
       <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>98</v>
+      <c r="C4" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -1404,15 +1524,197 @@
         <v>94</v>
       </c>
     </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9A9CD1-F9FF-4F1A-A5CA-0165D6730DAC}">
+  <dimension ref="A1:A29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="86.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A29" xr:uid="{8E9A9CD1-F9FF-4F1A-A5CA-0165D6730DAC}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78960CBD-E365-4FAD-92D4-B3ABC51581D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2A939-C951-4E60-9D01-E2EB60F94BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Libraries" sheetId="3" r:id="rId2"/>
+    <sheet name="References" sheetId="5" r:id="rId3"/>
+    <sheet name="Actions" sheetId="4" r:id="rId4"/>
+    <sheet name="Links to Review" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="270">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -332,9 +336,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>ire_dub_bus_daily_passengers</t>
   </si>
   <si>
@@ -419,101 +420,448 @@
     <t>OECD</t>
   </si>
   <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Rail freight loading capacity per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Rail freight loading capacity per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Available seat capacity for scheduled flight per one thousand units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Available seat capacity for scheduled flight per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Motorised two-wheelers per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Buses per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Passenger cars per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Road tractors per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Motorised two-wheelers per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Buses per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Passenger cars per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Road tractors per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Light goods road motor vehicles per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Light goods road motor vehicles per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>Heavy goods road motor vehicles per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>Heavy goods road motor vehicles per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of motorised two-wheelers per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>First registrations of buses per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>First registrations of passenger cars per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>First registrations of light goods road motor vehicles per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>First registrations of heavy goods road motor vehicles per one million units of current USD GDP</t>
-  </si>
-  <si>
-    <t>First registrations of motorised two-wheelers per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of buses per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of passenger cars per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of light goods road motor vehicles per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of heavy goods road motor vehicles per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of road tractors per one thousand inhabitants</t>
-  </si>
-  <si>
-    <t>First registrations of road tractors per one million units of current USD GDP</t>
-  </si>
-  <si>
     <t>Not Used</t>
+  </si>
+  <si>
+    <t># Import EDA &amp; visualisation libraries</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import numpy as np</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t>import seaborn as sns</t>
+  </si>
+  <si>
+    <t>import plotly.express as px</t>
+  </si>
+  <si>
+    <t>import geopandas as gpd</t>
+  </si>
+  <si>
+    <t>from pandas.plotting import scatter_matrix</t>
+  </si>
+  <si>
+    <t>from wordcloud import WordCloud</t>
+  </si>
+  <si>
+    <t># API &amp; data collection specific libraries</t>
+  </si>
+  <si>
+    <t>import googlemaps</t>
+  </si>
+  <si>
+    <t>import praw</t>
+  </si>
+  <si>
+    <t>import tweepy</t>
+  </si>
+  <si>
+    <t># Import language processing libraries</t>
+  </si>
+  <si>
+    <t>import string</t>
+  </si>
+  <si>
+    <t>import re</t>
+  </si>
+  <si>
+    <t>import nltk</t>
+  </si>
+  <si>
+    <t>from nltk.stem import PorterStemmer</t>
+  </si>
+  <si>
+    <t>from nltk.sentiment.vader import SentimentIntensityAnalyzer</t>
+  </si>
+  <si>
+    <t>from nltk.corpus import stopwords</t>
+  </si>
+  <si>
+    <t>nltk.download('stopwords')</t>
+  </si>
+  <si>
+    <t>nltk.download("vader_lexicon")</t>
+  </si>
+  <si>
+    <t># Import statiscal libraries from SciPy</t>
+  </si>
+  <si>
+    <t>import scipy as scipy</t>
+  </si>
+  <si>
+    <t>from scipy import stats</t>
+  </si>
+  <si>
+    <t>from scipy.stats import shapiro</t>
+  </si>
+  <si>
+    <t>from scipy.stats import pearsonr</t>
+  </si>
+  <si>
+    <t>from scipy.stats import norm</t>
+  </si>
+  <si>
+    <t>from scipy.stats import mannwhitneyu</t>
+  </si>
+  <si>
+    <t>from scipy.stats import kruskal</t>
+  </si>
+  <si>
+    <t># Import additional statistical libraries from statsmodels</t>
+  </si>
+  <si>
+    <t>import statsmodels.api as sm</t>
+  </si>
+  <si>
+    <t>from statsmodels.stats.proportion import proportions_ztest</t>
+  </si>
+  <si>
+    <t>from statsmodels.formula.api import ols</t>
+  </si>
+  <si>
+    <t># Import machine learning libriaries from sklearn</t>
+  </si>
+  <si>
+    <t>from sklearn.preprocessing import StandardScaler</t>
+  </si>
+  <si>
+    <t>from sklearn.neighbors import KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>from sklearn.naive_bayes import MultinomialNB</t>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import train_test_split</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import r2_score</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import mean_squared_error</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import confusion_matrix</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import classification_report</t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LinearRegression</t>
+  </si>
+  <si>
+    <t>from sklearn.feature_extraction.text import CountVectorizer</t>
+  </si>
+  <si>
+    <t>from sklearn.ensemble import RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>from sklearn.cluster import KMeans</t>
+  </si>
+  <si>
+    <t>from sklearn import linear_model</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/</t>
+  </si>
+  <si>
+    <t>https://numpy.org/</t>
+  </si>
+  <si>
+    <t>https://matplotlib.org/</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/version/1.2.4/reference/api/pandas.plotting.scatter_matrix.html</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/stats.html#module-scipy.stats</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.shapiro.html#scipy.stats.shapiro</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.pearsonr.html#scipy.stats.pearsonr</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.norm.html#scipy.stats.norm</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.r2_score.html#sklearn.metrics.r2_score</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.mean_squared_error.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.preprocessing.StandardScaler.html#sklearn.preprocessing.StandardScaler</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.neighbors.KNeighborsClassifier.html#sklearn.neighbors.KNeighborsClassifier</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.model_selection.train_test_split.html#sklearn.model_selection.train_test_split</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.linear_model.LinearRegression.html</t>
+  </si>
+  <si>
+    <t>https://plotly.com/python/plotly-express/</t>
+  </si>
+  <si>
+    <t>https://geopandas.org/en/stable/</t>
+  </si>
+  <si>
+    <t>https://github.com/amueller/word_cloud</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/googlemaps/</t>
+  </si>
+  <si>
+    <t>https://praw.readthedocs.io/en/stable/</t>
+  </si>
+  <si>
+    <t>https://www.tweepy.org/</t>
+  </si>
+  <si>
+    <t>https://docs.python.org/3/library/string.html</t>
+  </si>
+  <si>
+    <t>https://docs.python.org/3/library/re.html</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/howto/stem.html</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/howto/sentiment.html</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/search.html?q=stopwords</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/_modules/nltk/sentiment/vader.html</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.mannwhitneyu.html</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.kruskal.html</t>
+  </si>
+  <si>
+    <t>https://www.statsmodels.org/stable/index.html</t>
+  </si>
+  <si>
+    <t>https://www.statsmodels.org/stable/generated/statsmodels.stats.proportion.proportions_ztest.html</t>
+  </si>
+  <si>
+    <t>https://www.statsmodels.org/devel/generated/statsmodels.formula.api.ols.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.naive_bayes.MultinomialNB.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.confusion_matrix.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.classification_report.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.feature_extraction.text.CountVectorizer.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.ensemble.RandomForestRegressor.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.cluster.KMeans.html</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/linear_model.html</t>
+  </si>
+  <si>
+    <t>Explained</t>
+  </si>
+  <si>
+    <t>https://seaborn.pydata.org/</t>
+  </si>
+  <si>
+    <t>I used this library as it makes it really easy to load and manipulate structured data through the use of Pandas dataframes &amp; it has a lot of great functions for data cleaning &amp; transformation which allows me to get my data ready for deeper analysis and modelling.</t>
+  </si>
+  <si>
+    <t>I used this library for it's numerical functions &amp; for it's ability to prepare data in particular for Machine Learning modelling due to the different data structures required for those models such as arrays and matrices.</t>
+  </si>
+  <si>
+    <t>I used this library when I need to plot more low level detailed data visualisation that Seaborn is too high level to provide. It gives me a great level of customisation though generally is more tedious &amp; time consuming to produce effective visualisations than Seaborn.</t>
+  </si>
+  <si>
+    <t>I prefer to use Seaborn as it's an easier, more efficient &amp; aesthetically pleasing method for plotting data visualisations when I don't require the deeper level of customisation or detail that some visualisations need.</t>
+  </si>
+  <si>
+    <t>move 'df_lat_long' into datasets folder</t>
+  </si>
+  <si>
+    <t>update link in Jupyter</t>
+  </si>
+  <si>
+    <t>This dataset contains the 'Latitude' &amp; 'Longitude' unique towns values in CSO 'data' df, I wanted to obtain this data so that I can merge &amp; enrich my CSO dataset to include Geospatial data so that I can plot this data on a map &amp; bring it to life, allowing me to analyse interesting geographic trends.
+To obtain this data I had to create a developer account on Google &amp; then used the googlemaps library which allowed me to connect to Google Maps via API in Python &amp; extract the values I wanted using the Town names.</t>
+  </si>
+  <si>
+    <t>* Looking at these plots it's clear that the data is not normally distributed however for demonstration purposes I have used a Shapiro-Wilks test within the **SciPy Stats** Python library to test the null hypothesis that the data was drawn from a normal distribution
+* I set my threshold value 'p' as 0.05 as this is the default value to test for normality: 
+    * H0: If my p-value is greater than or equal to 0.05 I fail to reject the null hypothesis &amp; conclude that the data is normally distributed.
+    * H1: If my p-value is less than 0.05 I reject the null hypothesis &amp; conclude that the data is not normally distributed.</t>
+  </si>
+  <si>
+    <t>I used a Z-Test within the statsmodels Python library as this is appropriate to use when testing proportions, e.g percentage trips made in this case to determine if there is a significant difference between the proportions of two samples.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://seaborn.pydata.org/generated/seaborn.boxplot.html</t>
+  </si>
+  <si>
+    <t>Boxplots</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Histplots</t>
+  </si>
+  <si>
+    <t>https://seaborn.pydata.org/generated/seaborn.histplot.html</t>
+  </si>
+  <si>
+    <t>https://seaborn.pydata.org/generated/seaborn.barplot.html</t>
+  </si>
+  <si>
+    <t>Barplot</t>
+  </si>
+  <si>
+    <t>As I have a mix of normal &amp; not normally distributed data I cannot use normal parametric tests for comparison purposes like a t-test, instead I must use the likes of a Mann-Whitney U test using the SciPy Stats Python library which is a non-parametric test for non normally distributed data.</t>
+  </si>
+  <si>
+    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.probplot.html</t>
+  </si>
+  <si>
+    <t>QQ plot</t>
+  </si>
+  <si>
+    <t>Since the data for all countries does not follow a normal distribution, I need to use the non-parametric Kruskal-Wallis test from the **SciPy Stats** library to compare the differences of the three countries.</t>
+  </si>
+  <si>
+    <t>move 'reddit_comments.csv' into datasets folder</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gIZJQmX-55U&amp;ab_channel=PyMoondra</t>
+  </si>
+  <si>
+    <t>Reddit PRAW</t>
+  </si>
+  <si>
+    <t>https://github.com/analyticswithadam/Python/blob/main/Pulling_Tweets.ipynb</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fHHDM2-If9g</t>
+  </si>
+  <si>
+    <t>from sklearn.metrics import silhouette_score</t>
+  </si>
+  <si>
+    <t>from sklearn.cluster import AgglomerativeClustering</t>
+  </si>
+  <si>
+    <t>from sklearn.decomposition import PCA</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.silhouette_score.html</t>
+  </si>
+  <si>
+    <t>KMeans Clustering &amp; Hierarchical Agglomerative Clustering (HAC) both of which are contained within sklean Python libraries.</t>
+  </si>
+  <si>
+    <t>I chose these two methods as they are suitable for Unsupervised Machine Learning models &amp; they can be compared using metrics such as the silhouette score which is also contained within sklearn as an appropriate comparison metric.
+I'll also aim to compare the results of the two models visually as well to determine effectiveness as this is a useful method for comparison purposes as well as the silhouette score.</t>
+  </si>
+  <si>
+    <t>First method of cluster K-Means I used a standard scaler because K-Means clustering is sensitive to the scale of the data. Features with larger scales can have a negative influence on the algorithms behaviour &amp; lead to biased clusters.</t>
+  </si>
+  <si>
+    <t>https://scikit-learn.org/stable/modules/generated/sklearn.decomposition.PCA.html</t>
+  </si>
+  <si>
+    <t>geojson</t>
+  </si>
+  <si>
+    <t>from folium import Choropleth</t>
+  </si>
+  <si>
+    <t>https://python-visualization.github.io/folium/latest/</t>
+  </si>
+  <si>
+    <t>https://www.ssb.no/en/statbank/table/06672/</t>
+  </si>
+  <si>
+    <t>https://data-osi.opendata.arcgis.com/datasets/osi::counties-national-statutory-boundaries-2019-generalised-20m/explore?location=51.565643%2C-12.381219%2C11.84</t>
+  </si>
+  <si>
+    <t>https://www.tailte.ie/surveying/products/professional-mapping/boundary-data/</t>
+  </si>
+  <si>
+    <t>https://plotly.com/python/scattermapbox/</t>
+  </si>
+  <si>
+    <t>https://python-charts.com/spatial/choropleth-map-plotly/</t>
+  </si>
+  <si>
+    <t>https://arc.cct.ie/cgi/viewcontent.cgi?article=1042&amp;context=ict</t>
+  </si>
+  <si>
+    <t>https://collaboratory.ucr.edu/sites/default/files/2019-04/Final_Report_dan.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/docs/en/iotdm/11.3?topic=SSMLQ4_11.3.0/com.ibm.nex.optimd.dg.doc/11arcperf/oparcuse-r-statistical_reports.htm</t>
+  </si>
+  <si>
+    <t>https://www.uts.edu.au/current-students/support/helps/self-help-resources/academic-language/how-report-data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +884,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,12 +911,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -571,11 +921,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -586,16 +937,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -926,11 +1303,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +1339,7 @@
         <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -988,16 +1366,16 @@
     </row>
     <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1017,16 +1395,16 @@
     </row>
     <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1044,18 +1422,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>156</v>
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -1073,18 +1451,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1105,18 +1483,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
@@ -1142,13 +1520,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -1172,18 +1550,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
@@ -1204,18 +1582,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -1236,18 +1614,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>51</v>
@@ -1273,13 +1651,13 @@
         <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>51</v>
@@ -1300,18 +1678,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2">
         <v>2011</v>
@@ -1332,18 +1710,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2">
         <v>2016</v>
@@ -1369,13 +1747,13 @@
         <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2">
         <v>2022</v>
@@ -1396,18 +1774,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>72</v>
@@ -1428,18 +1806,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>72</v>
@@ -1465,13 +1843,13 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>83</v>
@@ -1492,18 +1870,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>89</v>
@@ -1526,30 +1904,37 @@
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Complete"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1558,163 +1943,1003 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9A9CD1-F9FF-4F1A-A5CA-0165D6730DAC}">
-  <dimension ref="A1:A29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F43" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}"/>
+  <conditionalFormatting sqref="C1:D1048576 E21:E22 E26:E27 E29 E31 E42 E45">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{88FED1B8-3F6B-4DDE-83BC-55E346B3DD49}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{B58AAC7A-187D-47C0-8E7E-C6262EDCF410}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{F7C320A6-6F25-4480-8C66-F5EC363A37FC}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{FB527B20-CAD1-4AAF-A014-8548FD9809E7}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{B84ED6E5-3FB8-457A-AFE5-59C27C37C5F6}"/>
+    <hyperlink ref="F23" r:id="rId7" location="scipy.stats.shapiro" xr:uid="{7DF4B7F8-3697-455A-BB17-9A7C07248C6A}"/>
+    <hyperlink ref="F21" r:id="rId8" location="module-scipy.stats" xr:uid="{68F30782-7089-43CA-A325-B38CC6EB19EA}"/>
+    <hyperlink ref="F22" r:id="rId9" location="module-scipy.stats" xr:uid="{09D407E2-4C67-44AB-9545-D9DE6ADBE4F6}"/>
+    <hyperlink ref="F29" r:id="rId10" xr:uid="{C64C34FF-D3D3-4A6B-B347-63368766C608}"/>
+    <hyperlink ref="F26" r:id="rId11" xr:uid="{5478FE09-B7F4-41A3-A534-593515CF238A}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{2248B110-FDCB-45BA-A32C-CEFEA011D95F}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{0A3A84F6-977C-4F01-A000-9F2FF2D76074}"/>
+    <hyperlink ref="F31" r:id="rId14" location="sklearn.preprocessing.StandardScaler" xr:uid="{A9C5FA9B-2325-44EE-806E-3C36D825D01E}"/>
+    <hyperlink ref="F42" r:id="rId15" xr:uid="{F635595B-E512-4B6C-B5AE-D59FD058A37A}"/>
+    <hyperlink ref="F7" r:id="rId16" xr:uid="{01E40577-809F-4EEC-8FC4-7008C002CEBF}"/>
+    <hyperlink ref="F47" r:id="rId17" xr:uid="{F0B53A0D-9F7A-446C-923A-32A1E89AA967}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D23A082-97C8-41A6-B9C0-555A57BFE950}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{93D2B1AD-7534-40EE-B3F3-ACB7D934476D}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{F11CFB82-97C2-41BC-8C21-4817DBA5EECA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29BACE2-8DBE-476E-A4DD-C9D38D65A097}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="86.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4FAE-1B45-428E-9685-4F7FC1DB3D78}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>133</v>
+      <c r="A7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A29" xr:uid="{8E9A9CD1-F9FF-4F1A-A5CA-0165D6730DAC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2A939-C951-4E60-9D01-E2EB60F94BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D9A4C-D07A-4715-B607-346D08DD4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Libraries" sheetId="3" r:id="rId2"/>
     <sheet name="References" sheetId="5" r:id="rId3"/>
-    <sheet name="Actions" sheetId="4" r:id="rId4"/>
-    <sheet name="Links to Review" sheetId="6" r:id="rId5"/>
+    <sheet name="Links to Review" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="268">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -444,9 +443,6 @@
     <t>import geopandas as gpd</t>
   </si>
   <si>
-    <t>from pandas.plotting import scatter_matrix</t>
-  </si>
-  <si>
     <t>from wordcloud import WordCloud</t>
   </si>
   <si>
@@ -501,12 +497,6 @@
     <t>from scipy.stats import shapiro</t>
   </si>
   <si>
-    <t>from scipy.stats import pearsonr</t>
-  </si>
-  <si>
-    <t>from scipy.stats import norm</t>
-  </si>
-  <si>
     <t>from scipy.stats import mannwhitneyu</t>
   </si>
   <si>
@@ -531,42 +521,21 @@
     <t>from sklearn.preprocessing import StandardScaler</t>
   </si>
   <si>
-    <t>from sklearn.neighbors import KNeighborsClassifier</t>
-  </si>
-  <si>
     <t>from sklearn.naive_bayes import MultinomialNB</t>
   </si>
   <si>
     <t>from sklearn.model_selection import train_test_split</t>
   </si>
   <si>
-    <t>from sklearn.metrics import r2_score</t>
-  </si>
-  <si>
-    <t>from sklearn.metrics import mean_squared_error</t>
-  </si>
-  <si>
-    <t>from sklearn.metrics import confusion_matrix</t>
-  </si>
-  <si>
     <t>from sklearn.metrics import classification_report</t>
   </si>
   <si>
-    <t>from sklearn.linear_model import LinearRegression</t>
-  </si>
-  <si>
     <t>from sklearn.feature_extraction.text import CountVectorizer</t>
   </si>
   <si>
-    <t>from sklearn.ensemble import RandomForestRegressor</t>
-  </si>
-  <si>
     <t>from sklearn.cluster import KMeans</t>
   </si>
   <si>
-    <t>from sklearn import linear_model</t>
-  </si>
-  <si>
     <t>Library</t>
   </si>
   <si>
@@ -597,48 +566,24 @@
     <t>https://matplotlib.org/</t>
   </si>
   <si>
-    <t>https://pandas.pydata.org/pandas-docs/version/1.2.4/reference/api/pandas.plotting.scatter_matrix.html</t>
-  </si>
-  <si>
     <t>https://docs.scipy.org/doc/scipy/reference/stats.html#module-scipy.stats</t>
   </si>
   <si>
     <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.shapiro.html#scipy.stats.shapiro</t>
   </si>
   <si>
-    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.pearsonr.html#scipy.stats.pearsonr</t>
-  </si>
-  <si>
-    <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.norm.html#scipy.stats.norm</t>
-  </si>
-  <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.r2_score.html#sklearn.metrics.r2_score</t>
-  </si>
-  <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.mean_squared_error.html</t>
-  </si>
-  <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.preprocessing.StandardScaler.html#sklearn.preprocessing.StandardScaler</t>
   </si>
   <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.neighbors.KNeighborsClassifier.html#sklearn.neighbors.KNeighborsClassifier</t>
-  </si>
-  <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.model_selection.train_test_split.html#sklearn.model_selection.train_test_split</t>
   </si>
   <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.linear_model.LinearRegression.html</t>
-  </si>
-  <si>
     <t>https://plotly.com/python/plotly-express/</t>
   </si>
   <si>
     <t>https://geopandas.org/en/stable/</t>
   </si>
   <si>
-    <t>https://github.com/amueller/word_cloud</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/googlemaps/</t>
   </si>
   <si>
@@ -660,9 +605,6 @@
     <t>https://www.nltk.org/howto/stem.html</t>
   </si>
   <si>
-    <t>https://www.nltk.org/howto/sentiment.html</t>
-  </si>
-  <si>
     <t>https://www.nltk.org/search.html?q=stopwords</t>
   </si>
   <si>
@@ -687,24 +629,15 @@
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.naive_bayes.MultinomialNB.html</t>
   </si>
   <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.confusion_matrix.html</t>
-  </si>
-  <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.metrics.classification_report.html</t>
   </si>
   <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.feature_extraction.text.CountVectorizer.html</t>
   </si>
   <si>
-    <t>https://scikit-learn.org/stable/modules/generated/sklearn.ensemble.RandomForestRegressor.html</t>
-  </si>
-  <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.cluster.KMeans.html</t>
   </si>
   <si>
-    <t>https://scikit-learn.org/stable/modules/linear_model.html</t>
-  </si>
-  <si>
     <t>Explained</t>
   </si>
   <si>
@@ -721,12 +654,6 @@
   </si>
   <si>
     <t>I prefer to use Seaborn as it's an easier, more efficient &amp; aesthetically pleasing method for plotting data visualisations when I don't require the deeper level of customisation or detail that some visualisations need.</t>
-  </si>
-  <si>
-    <t>move 'df_lat_long' into datasets folder</t>
-  </si>
-  <si>
-    <t>update link in Jupyter</t>
   </si>
   <si>
     <t>This dataset contains the 'Latitude' &amp; 'Longitude' unique towns values in CSO 'data' df, I wanted to obtain this data so that I can merge &amp; enrich my CSO dataset to include Geospatial data so that I can plot this data on a map &amp; bring it to life, allowing me to analyse interesting geographic trends.
@@ -778,9 +705,6 @@
     <t>Since the data for all countries does not follow a normal distribution, I need to use the non-parametric Kruskal-Wallis test from the **SciPy Stats** library to compare the differences of the three countries.</t>
   </si>
   <si>
-    <t>move 'reddit_comments.csv' into datasets folder</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gIZJQmX-55U&amp;ab_channel=PyMoondra</t>
   </si>
   <si>
@@ -821,9 +745,6 @@
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.decomposition.PCA.html</t>
   </si>
   <si>
-    <t>geojson</t>
-  </si>
-  <si>
     <t>from folium import Choropleth</t>
   </si>
   <si>
@@ -855,13 +776,113 @@
   </si>
   <si>
     <t>https://www.uts.edu.au/current-students/support/helps/self-help-resources/academic-language/how-report-data</t>
+  </si>
+  <si>
+    <t>import holoviews as hv</t>
+  </si>
+  <si>
+    <t>from holoviews import opts</t>
+  </si>
+  <si>
+    <t>import panel as pn</t>
+  </si>
+  <si>
+    <t>hv.extension('bokeh')</t>
+  </si>
+  <si>
+    <t>import folium</t>
+  </si>
+  <si>
+    <t>Using the Folium Python library I am able to export the same data visualisation but in a shareable interactive format using html which will be availabe in the appropriate directly upon execution of the above code.
+This html is a really useful &amp; user friendly way of displaying this data as it allows for ease of accessability &amp; can be shared with users more easily than a visual within a Jupter Notebook file.</t>
+  </si>
+  <si>
+    <t>https://holoviews.org/</t>
+  </si>
+  <si>
+    <t>https://holoviews.org/user_guide/Customizing_Plots.html</t>
+  </si>
+  <si>
+    <t>https://panel.holoviz.org/</t>
+  </si>
+  <si>
+    <t>https://holoviews.org/user_guide/Plotting_with_Bokeh.html</t>
+  </si>
+  <si>
+    <t>https://www.nltk.org/api/nltk.sentiment.vader.html</t>
+  </si>
+  <si>
+    <t>* In the above steps I wanted to get the compound sentiment score based on the Reddit posts so I used the **SentimentIntensityAnalyzer** which uses a pre-trained lexicon **Vadar** to calculate the sentiment scores for text. 
+* I did this because I want to obtain a compound score which I can then aggregate across my list of values &amp; plot the results so that I can analyse the overall sentiment at a macro level.
+* Before I actually calculated the sentiment score I did various data cleaning &amp; pre-processing steps using multiple Python libraries such as **stopwords, string, PorterStemmer** to try &amp; ensure my results are as accurate &amp; relevant as they could be without unnecessary values being contained within the string.</t>
+  </si>
+  <si>
+    <t>The Python libraries Holoviews, Panels, Bokeh allow me to do that effectively, I chose drop downs for both 'County' &amp; 'Town' to allow the user to effectively filter the dashboard based on their specific requirements.</t>
+  </si>
+  <si>
+    <t>Using the Folium Python library I am able to export the same data visualisation but in a shareable interactive format using html which will be availabe in the appropriate directly upon execution of the above code.</t>
+  </si>
+  <si>
+    <t>I decided to include a word cloud as a way to complement what I believe to be the more effective bar chart.
+The word cloud doesn't offer the user much insight into the actual sentiment but it does help with understanding what are the key terms in this data set which can be useful during EDA &amp; comparison purposes by seeing at a high level what the most frequently occuring words are.</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/wordcloud/</t>
+  </si>
+  <si>
+    <t>* Using a classification report I can validate my model results are as follows:</t>
+  </si>
+  <si>
+    <t>**Key Observations:**
+* In the steps taken above I'm aiming to build a text classification model that can analyse text data &amp; categorise it into predefined classes which in my case is the sentiment polarity categories:
+    * Postive
+    * Neural
+    * Negative
+* The goal is to evaluate how well the model actually performs in clasifying this text based on the patterns it has learned during training.
+* Ultimately this model can be used then for categorising text content into predefined categories, e.g. sentiment for other countries public transport or transport in general.
+* In my model I decided to set my stop words as 'ireland' &amp; 'dublin' so that the model wouldn't include them as they are likely used frequently &amp; could potentially skew the model results as they are not necessary when creating a more generalised model.
+* Using a classification report I can validate my model results are as follows:
+* Precision - accuracy of positive predictions made by the model
+    * The model performed better at classifying 'negative' &amp; 'neutral' classes at roughly ~60% being correctly classified.
+    * It was very poor at classifying 'positive' classes with only 38% being correctly classified.
+* Recall - ability of the model to correctly identify all instances of a given class
+    * Both 'negative' &amp; 'positive' scored very poorly with this correct identification rates at just 33% &amp; 19% respectively.
+    * 'Neutral' values however performed much better at 85%.
+* F1-Score - harmonic mean of precision &amp; recall, providing a balance measure of performance
+    * On balance 'neutral' performed consideraly better than both 'negative' &amp; 'positive'
+* Accuracy - measures the proportion of correctly classified instances over the entire dataset
+    * Overall accuracy sits at 59% meaning it is likely not very useful
+**References:**
+* https://scikit-learn.org/stable/modules/generated/sklearn.feature_extraction.text.CountVectorizer.html
+* https://scikit-learn.org/stable/modules/generated/sklearn.naive_bayes.MultinomialNB.html
+* https://scikit-learn.org/stable/modules/generated/sklearn.model_selection.train_test_split.html#sklearn.model_selection.train_test_split
+* https://scikit-learn.org/stable/modules/generated/sklearn.metrics.classification_report.html</t>
+  </si>
+  <si>
+    <t>I will use two main machine learning models for comparison purposes for Clustering:
+KMeans Clustering &amp; Hierarchical Agglomerative Clustering (HAC) both of which are contained within sklean Python libraries.</t>
+  </si>
+  <si>
+    <t>I used Principal Component Analysis (PCA) for dimensionality reducation, this technique enables me to reduce the number of dimensions in my dataset whilst retaining most of the variance.</t>
+  </si>
+  <si>
+    <t>I decided to use the Geopandas Python package as it's a very effective way for visualising Geospatial data in combination with the county boundaries dataset which I obtained &amp; imported into this analysis.</t>
+  </si>
+  <si>
+    <t>Using Plotly Express &amp; Mapbox Python packages I chose to plot the frequency of use of these transportation methods on a Geospatial map so that the user can interact with the data visualisation &amp; hover ove specific areas to see the total volume of people travelling in those specific locations which can be useful for capacity requirements analysis.</t>
+  </si>
+  <si>
+    <t>I created an application in my Reddit account called 'web_scraper_api', and using the praw (Python Reddit API Wrapper) library I was able to pull posts based on my specific query criteria e.g. posts with the words 'public transport' in the Subreddit 'Ireland' to ensure that the results are relevant.</t>
+  </si>
+  <si>
+    <t>I initially tried using the Twitter API using the tweepy however Twitter charge for their API usage now so whilst I could successfully connect to the API through Python I didn't have the necessary level of access to pull tweets. I have included this code below as well for reference but again it is commented out so you will not be able to execute it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,8 +913,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +939,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -921,12 +954,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -941,18 +975,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1306,7 +1358,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -1931,10 +1983,10 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1944,810 +1996,898 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="128.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
-      <c r="F20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E23" t="s">
-        <v>230</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D29" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="B42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>172</v>
-      </c>
-      <c r="B41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>173</v>
-      </c>
-      <c r="B42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B44" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>250</v>
-      </c>
-      <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" t="s">
-        <v>180</v>
-      </c>
-      <c r="E45" t="s">
-        <v>255</v>
-      </c>
-      <c r="F45" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>252</v>
-      </c>
-      <c r="B46" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>259</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F43" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}"/>
-  <conditionalFormatting sqref="C1:D1048576 E21:E22 E26:E27 E29 E31 E42 E45">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <autoFilter ref="A1:F35" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
+    <sortCondition ref="B1:B42"/>
+  </sortState>
+  <conditionalFormatting sqref="E25 E37 E15:E23 C1:D1048576 E32 E12:E13 E4">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
-    <hyperlink ref="F10" r:id="rId2" xr:uid="{88FED1B8-3F6B-4DDE-83BC-55E346B3DD49}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{B58AAC7A-187D-47C0-8E7E-C6262EDCF410}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{F7C320A6-6F25-4480-8C66-F5EC363A37FC}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{FB527B20-CAD1-4AAF-A014-8548FD9809E7}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{B84ED6E5-3FB8-457A-AFE5-59C27C37C5F6}"/>
-    <hyperlink ref="F23" r:id="rId7" location="scipy.stats.shapiro" xr:uid="{7DF4B7F8-3697-455A-BB17-9A7C07248C6A}"/>
-    <hyperlink ref="F21" r:id="rId8" location="module-scipy.stats" xr:uid="{68F30782-7089-43CA-A325-B38CC6EB19EA}"/>
-    <hyperlink ref="F22" r:id="rId9" location="module-scipy.stats" xr:uid="{09D407E2-4C67-44AB-9545-D9DE6ADBE4F6}"/>
-    <hyperlink ref="F29" r:id="rId10" xr:uid="{C64C34FF-D3D3-4A6B-B347-63368766C608}"/>
-    <hyperlink ref="F26" r:id="rId11" xr:uid="{5478FE09-B7F4-41A3-A534-593515CF238A}"/>
-    <hyperlink ref="F27" r:id="rId12" xr:uid="{2248B110-FDCB-45BA-A32C-CEFEA011D95F}"/>
-    <hyperlink ref="F11" r:id="rId13" xr:uid="{0A3A84F6-977C-4F01-A000-9F2FF2D76074}"/>
-    <hyperlink ref="F31" r:id="rId14" location="sklearn.preprocessing.StandardScaler" xr:uid="{A9C5FA9B-2325-44EE-806E-3C36D825D01E}"/>
-    <hyperlink ref="F42" r:id="rId15" xr:uid="{F635595B-E512-4B6C-B5AE-D59FD058A37A}"/>
-    <hyperlink ref="F7" r:id="rId16" xr:uid="{01E40577-809F-4EEC-8FC4-7008C002CEBF}"/>
-    <hyperlink ref="F47" r:id="rId17" xr:uid="{F0B53A0D-9F7A-446C-923A-32A1E89AA967}"/>
+    <hyperlink ref="E14" r:id="rId1" display="https://github.com/amueller/word_cloud" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{88FED1B8-3F6B-4DDE-83BC-55E346B3DD49}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{B58AAC7A-187D-47C0-8E7E-C6262EDCF410}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{F7C320A6-6F25-4480-8C66-F5EC363A37FC}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{FB527B20-CAD1-4AAF-A014-8548FD9809E7}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{B84ED6E5-3FB8-457A-AFE5-59C27C37C5F6}"/>
+    <hyperlink ref="F40" r:id="rId7" location="scipy.stats.shapiro" xr:uid="{7DF4B7F8-3697-455A-BB17-9A7C07248C6A}"/>
+    <hyperlink ref="F38" r:id="rId8" location="module-scipy.stats" xr:uid="{68F30782-7089-43CA-A325-B38CC6EB19EA}"/>
+    <hyperlink ref="F39" r:id="rId9" location="module-scipy.stats" xr:uid="{09D407E2-4C67-44AB-9545-D9DE6ADBE4F6}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{C64C34FF-D3D3-4A6B-B347-63368766C608}"/>
+    <hyperlink ref="F41" r:id="rId11" xr:uid="{5478FE09-B7F4-41A3-A534-593515CF238A}"/>
+    <hyperlink ref="F42" r:id="rId12" xr:uid="{2248B110-FDCB-45BA-A32C-CEFEA011D95F}"/>
+    <hyperlink ref="F3" r:id="rId13" xr:uid="{0A3A84F6-977C-4F01-A000-9F2FF2D76074}"/>
+    <hyperlink ref="F29" r:id="rId14" location="sklearn.preprocessing.StandardScaler" xr:uid="{A9C5FA9B-2325-44EE-806E-3C36D825D01E}"/>
+    <hyperlink ref="F34" r:id="rId15" xr:uid="{F635595B-E512-4B6C-B5AE-D59FD058A37A}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{01E40577-809F-4EEC-8FC4-7008C002CEBF}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{F0B53A0D-9F7A-446C-923A-32A1E89AA967}"/>
+    <hyperlink ref="F20" r:id="rId18" xr:uid="{E93E8754-1965-49C0-88BE-DFED798D1D5C}"/>
+    <hyperlink ref="F17" r:id="rId19" xr:uid="{7EAB843A-8692-49AE-911C-07B9BF2E8BA5}"/>
+    <hyperlink ref="F16" r:id="rId20" xr:uid="{8754FE86-0123-471B-B0C1-9B9144B6DBAC}"/>
+    <hyperlink ref="F18" r:id="rId21" xr:uid="{D3DBC8E1-C759-4C3E-A84E-97F379BC4674}"/>
+    <hyperlink ref="F19" r:id="rId22" xr:uid="{C65247DD-7C1F-4214-961D-C563EC182062}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{7BB85FB3-AF3D-41B0-8FE2-1E221C22FC41}"/>
+    <hyperlink ref="F14" r:id="rId24" xr:uid="{39F1C73C-392E-444E-8A10-73D9261FF301}"/>
+    <hyperlink ref="F30" r:id="rId25" xr:uid="{843AE992-D005-434D-B5DC-0963032B56BB}"/>
+    <hyperlink ref="F32" r:id="rId26" xr:uid="{94BBA704-9088-4BC6-985C-D77D73818E49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2770,66 +2910,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2842,53 +2982,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29BACE2-8DBE-476E-A4DD-C9D38D65A097}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4FAE-1B45-428E-9685-4F7FC1DB3D78}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -2896,47 +2993,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D9A4C-D07A-4715-B607-346D08DD4535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E9929-FEAF-4320-B309-2C211B50715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -976,9 +976,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -997,21 +995,21 @@
   <dxfs count="5">
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,7 +1356,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
@@ -2005,843 +2003,841 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="128.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
         <v>258</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
         <v>256</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
         <v>256</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
         <v>249</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
         <v>255</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" t="s">
         <v>255</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="C26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
         <v>255</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" t="s">
         <v>255</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="C31" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" t="s">
         <v>261</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" t="s">
         <v>260</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
         <v>229</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>226</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="C35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
         <v>208</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" t="s">
         <v>206</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
         <v>216</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>153</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" t="s">
         <v>219</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2850,16 +2846,16 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
     <sortCondition ref="B1:B42"/>
   </sortState>
-  <conditionalFormatting sqref="E25 E37 E15:E23 C1:D1048576 E32 E12:E13 E4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1048576 E4 E12:E13 E15:E23 E25 E32 E37">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" display="https://github.com/amueller/word_cloud" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
@@ -2985,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4FAE-1B45-428E-9685-4F7FC1DB3D78}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,26 +3013,32 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{9CA00F21-816A-447F-A5A5-FFF5D01E640D}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{DA00DC2E-302C-4771-A1B8-9AC9BF8F065B}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{3FE90EF4-E8BE-4E84-8CEC-DE6E1D9F6436}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{B6658CC1-7F3E-4028-ADAE-BF0423B249C9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E9929-FEAF-4320-B309-2C211B50715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8751E3-A938-4E56-AC30-B06AB537F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Libraries" sheetId="3" r:id="rId2"/>
     <sheet name="References" sheetId="5" r:id="rId3"/>
     <sheet name="Links to Review" sheetId="6" r:id="rId4"/>
+    <sheet name="Word Count" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$35</definedName>
@@ -1356,9 +1357,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2981,8 +2982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4FAE-1B45-428E-9685-4F7FC1DB3D78}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2993,7 +2994,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3038,7 +3039,82 @@
     <hyperlink ref="A6" r:id="rId2" xr:uid="{DA00DC2E-302C-4771-A1B8-9AC9BF8F065B}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{3FE90EF4-E8BE-4E84-8CEC-DE6E1D9F6436}"/>
     <hyperlink ref="A9" r:id="rId4" xr:uid="{B6658CC1-7F3E-4028-ADAE-BF0423B249C9}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{83440D57-50F6-485F-B4D9-825F217058F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6E7F3-35F7-4DE4-BFEF-F31A88FD96A7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <f>SUM(A:A)</f>
+        <v>991</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8751E3-A938-4E56-AC30-B06AB537F12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018918DC-5020-4D2E-8878-FA77377E8897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Libraries" sheetId="3" r:id="rId2"/>
     <sheet name="References" sheetId="5" r:id="rId3"/>
     <sheet name="Links to Review" sheetId="6" r:id="rId4"/>
-    <sheet name="Word Count" sheetId="7" r:id="rId5"/>
+    <sheet name="WordCount" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$L$19</definedName>
+    <definedName name="_Toc154585120" localSheetId="4">WordCount!$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="303">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -507,15 +508,9 @@
     <t># Import additional statistical libraries from statsmodels</t>
   </si>
   <si>
-    <t>import statsmodels.api as sm</t>
-  </si>
-  <si>
     <t>from statsmodels.stats.proportion import proportions_ztest</t>
   </si>
   <si>
-    <t>from statsmodels.formula.api import ols</t>
-  </si>
-  <si>
     <t># Import machine learning libriaries from sklearn</t>
   </si>
   <si>
@@ -555,9 +550,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>https://pandas.pydata.org/</t>
   </si>
   <si>
@@ -618,13 +610,7 @@
     <t>https://docs.scipy.org/doc/scipy/reference/generated/scipy.stats.kruskal.html</t>
   </si>
   <si>
-    <t>https://www.statsmodels.org/stable/index.html</t>
-  </si>
-  <si>
     <t>https://www.statsmodels.org/stable/generated/statsmodels.stats.proportion.proportions_ztest.html</t>
-  </si>
-  <si>
-    <t>https://www.statsmodels.org/devel/generated/statsmodels.formula.api.ols.html</t>
   </si>
   <si>
     <t>https://scikit-learn.org/stable/modules/generated/sklearn.naive_bayes.MultinomialNB.html</t>
@@ -878,12 +864,132 @@
   <si>
     <t>I initially tried using the Twitter API using the tweepy however Twitter charge for their API usage now so whilst I could successfully connect to the API through Python I didn't have the necessary level of access to pull tweets. I have included this code below as well for reference but again it is commented out so you will not be able to execute it.</t>
   </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Metho</t>
+  </si>
+  <si>
+    <t>Project Objectives &amp; Problem Definition</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>EDA until fig 3</t>
+  </si>
+  <si>
+    <t>EDA until fig 4</t>
+  </si>
+  <si>
+    <t>EDA until fig 5</t>
+  </si>
+  <si>
+    <t>EDA until fig 6</t>
+  </si>
+  <si>
+    <t>EDA until fig 7</t>
+  </si>
+  <si>
+    <t>EDA until fig 8</t>
+  </si>
+  <si>
+    <t>EDA until fig 9</t>
+  </si>
+  <si>
+    <t>EDA until fig 12</t>
+  </si>
+  <si>
+    <t>EDA until fig 16</t>
+  </si>
+  <si>
+    <t>EDA until fig 17</t>
+  </si>
+  <si>
+    <t>EDA until fig 19</t>
+  </si>
+  <si>
+    <t>EDA until fig 22</t>
+  </si>
+  <si>
+    <t>EDA until fig 23</t>
+  </si>
+  <si>
+    <t>EDA until fig 24</t>
+  </si>
+  <si>
+    <t>EDA until fig 27</t>
+  </si>
+  <si>
+    <t>EDA until fig 28</t>
+  </si>
+  <si>
+    <t>EDA until fig 29</t>
+  </si>
+  <si>
+    <t>EDA until fig 30</t>
+  </si>
+  <si>
+    <t>EDA until fig 31</t>
+  </si>
+  <si>
+    <t>Until modelling and evaluation phase</t>
+  </si>
+  <si>
+    <t>Until model 1</t>
+  </si>
+  <si>
+    <t>Until fig 32</t>
+  </si>
+  <si>
+    <t>Until fig 33</t>
+  </si>
+  <si>
+    <t>Until fig 34</t>
+  </si>
+  <si>
+    <t>Until fig 35</t>
+  </si>
+  <si>
+    <t>Until fig 36</t>
+  </si>
+  <si>
+    <t>Until fig 37</t>
+  </si>
+  <si>
+    <t>Until fig 38</t>
+  </si>
+  <si>
+    <t>Until fig 39</t>
+  </si>
+  <si>
+    <t>Until fig 43</t>
+  </si>
+  <si>
+    <t>Until fig 42</t>
+  </si>
+  <si>
+    <t>Until fig 45</t>
+  </si>
+  <si>
+    <t>Until fig 48</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Total Word Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,15 +1020,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -940,11 +1039,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -955,13 +1049,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -985,12 +1078,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1357,29 +1448,29 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="104.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="46.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="104.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1506,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -1444,7 +1535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -1473,7 +1564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -1502,7 +1593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1534,7 +1625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1601,7 +1692,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1665,7 +1756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1697,7 +1788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1729,7 +1820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1761,7 +1852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1793,7 +1884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -1857,7 +1948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -1889,7 +1980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -1921,7 +2012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -1953,7 +2044,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -1995,43 +2086,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="128.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -2039,19 +2130,19 @@
         <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2059,19 +2150,19 @@
         <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -2079,778 +2170,744 @@
         <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>155</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
         <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s">
         <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E30" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>261</v>
-      </c>
-      <c r="F33" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="F34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E37" t="s">
-        <v>263</v>
-      </c>
-      <c r="F37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" t="s">
-        <v>216</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F35" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F42">
-    <sortCondition ref="B1:B42"/>
+  <autoFilter ref="A1:F40" xr:uid="{602EA09B-DBDA-4978-93E7-EF7DD78255B4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1048576 E4 E12:E13 E15:E23 E25 E32 E37">
+  <conditionalFormatting sqref="E4 E10:E11 E13:E21 E23 E30 E35 C1:D1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -2859,32 +2916,32 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E14" r:id="rId1" display="https://github.com/amueller/word_cloud" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
+    <hyperlink ref="E12" r:id="rId1" display="https://github.com/amueller/word_cloud" xr:uid="{73877CBF-C4E7-41C5-B284-34E68B1B34F0}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{88FED1B8-3F6B-4DDE-83BC-55E346B3DD49}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{B58AAC7A-187D-47C0-8E7E-C6262EDCF410}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{F7C320A6-6F25-4480-8C66-F5EC363A37FC}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{FB527B20-CAD1-4AAF-A014-8548FD9809E7}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{B84ED6E5-3FB8-457A-AFE5-59C27C37C5F6}"/>
-    <hyperlink ref="F40" r:id="rId7" location="scipy.stats.shapiro" xr:uid="{7DF4B7F8-3697-455A-BB17-9A7C07248C6A}"/>
-    <hyperlink ref="F38" r:id="rId8" location="module-scipy.stats" xr:uid="{68F30782-7089-43CA-A325-B38CC6EB19EA}"/>
-    <hyperlink ref="F39" r:id="rId9" location="module-scipy.stats" xr:uid="{09D407E2-4C67-44AB-9545-D9DE6ADBE4F6}"/>
-    <hyperlink ref="F6" r:id="rId10" xr:uid="{C64C34FF-D3D3-4A6B-B347-63368766C608}"/>
-    <hyperlink ref="F41" r:id="rId11" xr:uid="{5478FE09-B7F4-41A3-A534-593515CF238A}"/>
-    <hyperlink ref="F42" r:id="rId12" xr:uid="{2248B110-FDCB-45BA-A32C-CEFEA011D95F}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{B58AAC7A-187D-47C0-8E7E-C6262EDCF410}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{F7C320A6-6F25-4480-8C66-F5EC363A37FC}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{FB527B20-CAD1-4AAF-A014-8548FD9809E7}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{B84ED6E5-3FB8-457A-AFE5-59C27C37C5F6}"/>
+    <hyperlink ref="F38" r:id="rId7" location="scipy.stats.shapiro" xr:uid="{7DF4B7F8-3697-455A-BB17-9A7C07248C6A}"/>
+    <hyperlink ref="F36" r:id="rId8" location="module-scipy.stats" xr:uid="{68F30782-7089-43CA-A325-B38CC6EB19EA}"/>
+    <hyperlink ref="F37" r:id="rId9" location="module-scipy.stats" xr:uid="{09D407E2-4C67-44AB-9545-D9DE6ADBE4F6}"/>
+    <hyperlink ref="F5" r:id="rId10" xr:uid="{C64C34FF-D3D3-4A6B-B347-63368766C608}"/>
+    <hyperlink ref="F39" r:id="rId11" xr:uid="{5478FE09-B7F4-41A3-A534-593515CF238A}"/>
+    <hyperlink ref="F40" r:id="rId12" xr:uid="{2248B110-FDCB-45BA-A32C-CEFEA011D95F}"/>
     <hyperlink ref="F3" r:id="rId13" xr:uid="{0A3A84F6-977C-4F01-A000-9F2FF2D76074}"/>
-    <hyperlink ref="F29" r:id="rId14" location="sklearn.preprocessing.StandardScaler" xr:uid="{A9C5FA9B-2325-44EE-806E-3C36D825D01E}"/>
-    <hyperlink ref="F34" r:id="rId15" xr:uid="{F635595B-E512-4B6C-B5AE-D59FD058A37A}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{01E40577-809F-4EEC-8FC4-7008C002CEBF}"/>
-    <hyperlink ref="F15" r:id="rId17" xr:uid="{F0B53A0D-9F7A-446C-923A-32A1E89AA967}"/>
-    <hyperlink ref="F20" r:id="rId18" xr:uid="{E93E8754-1965-49C0-88BE-DFED798D1D5C}"/>
-    <hyperlink ref="F17" r:id="rId19" xr:uid="{7EAB843A-8692-49AE-911C-07B9BF2E8BA5}"/>
-    <hyperlink ref="F16" r:id="rId20" xr:uid="{8754FE86-0123-471B-B0C1-9B9144B6DBAC}"/>
-    <hyperlink ref="F18" r:id="rId21" xr:uid="{D3DBC8E1-C759-4C3E-A84E-97F379BC4674}"/>
-    <hyperlink ref="F19" r:id="rId22" xr:uid="{C65247DD-7C1F-4214-961D-C563EC182062}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{7BB85FB3-AF3D-41B0-8FE2-1E221C22FC41}"/>
-    <hyperlink ref="F14" r:id="rId24" xr:uid="{39F1C73C-392E-444E-8A10-73D9261FF301}"/>
-    <hyperlink ref="F30" r:id="rId25" xr:uid="{843AE992-D005-434D-B5DC-0963032B56BB}"/>
-    <hyperlink ref="F32" r:id="rId26" xr:uid="{94BBA704-9088-4BC6-985C-D77D73818E49}"/>
+    <hyperlink ref="F27" r:id="rId14" location="sklearn.preprocessing.StandardScaler" xr:uid="{A9C5FA9B-2325-44EE-806E-3C36D825D01E}"/>
+    <hyperlink ref="F32" r:id="rId15" xr:uid="{F635595B-E512-4B6C-B5AE-D59FD058A37A}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{01E40577-809F-4EEC-8FC4-7008C002CEBF}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{F0B53A0D-9F7A-446C-923A-32A1E89AA967}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{E93E8754-1965-49C0-88BE-DFED798D1D5C}"/>
+    <hyperlink ref="F15" r:id="rId19" xr:uid="{7EAB843A-8692-49AE-911C-07B9BF2E8BA5}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{8754FE86-0123-471B-B0C1-9B9144B6DBAC}"/>
+    <hyperlink ref="F16" r:id="rId21" xr:uid="{D3DBC8E1-C759-4C3E-A84E-97F379BC4674}"/>
+    <hyperlink ref="F17" r:id="rId22" xr:uid="{C65247DD-7C1F-4214-961D-C563EC182062}"/>
+    <hyperlink ref="F23" r:id="rId23" xr:uid="{7BB85FB3-AF3D-41B0-8FE2-1E221C22FC41}"/>
+    <hyperlink ref="F12" r:id="rId24" xr:uid="{39F1C73C-392E-444E-8A10-73D9261FF301}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{843AE992-D005-434D-B5DC-0963032B56BB}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{94BBA704-9088-4BC6-985C-D77D73818E49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2896,77 +2953,77 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>218</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2982,55 +3039,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4FAE-1B45-428E-9685-4F7FC1DB3D78}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3046,72 +3101,339 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F6E7F3-35F7-4DE4-BFEF-F31A88FD96A7}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD761188-E3FE-4B38-A886-962C9E39D815}">
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="7">
+        <f>SUM(B3:B1048576)</f>
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3">
         <v>46</v>
       </c>
-      <c r="C1">
-        <f>SUM(A:A)</f>
-        <v>991</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8">
+        <f>211+74</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>35</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>291</v>
+      </c>
+      <c r="B31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>292</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>300</v>
+      </c>
+      <c r="B40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018918DC-5020-4D2E-8878-FA77377E8897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171CDBC-9960-412A-AFDE-C15A823FE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Libraries" sheetId="3" r:id="rId2"/>
-    <sheet name="References" sheetId="5" r:id="rId3"/>
-    <sheet name="Links to Review" sheetId="6" r:id="rId4"/>
+    <sheet name="References" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Links to Review" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="WordCount" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Libraries!$A$1:$F$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$L$19</definedName>
-    <definedName name="_Toc154585120" localSheetId="4">WordCount!$A$6</definedName>
+    <definedName name="_Toc154585120" localSheetId="4">WordCount!$A$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="304">
   <si>
     <t>INDICATOR_NAME</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Total Word Count</t>
+  </si>
+  <si>
+    <t>Optimisation and Testing</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2910,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 E10:E11 E13:E21 E23 E30 E35 C1:D1048576">
+  <conditionalFormatting sqref="C1:D1048576 E4 E10:E11 E13:E21 E23 E30 E35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -3102,7 +3105,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD761188-E3FE-4B38-A886-962C9E39D815}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B1" s="7">
         <f>SUM(B3:B1048576)</f>
-        <v>3157</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3149,291 +3152,298 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8">
-        <f>211+74</f>
-        <v>285</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B18">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B23">
-        <v>150</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B25">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B28">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B31">
-        <v>110</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B32">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34">
-        <v>183</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36">
-        <v>234</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37">
-        <v>112</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B40">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>301</v>
       </c>
-      <c r="B41">
-        <v>121</v>
+      <c r="B42">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/s1_ca2/data_dictionary.xlsx
+++ b/s1_ca2/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shass\my_github\cct_msc_data_analytics\s1_ca2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171CDBC-9960-412A-AFDE-C15A823FE3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9606D63-5845-4497-9C8F-D87706A7591A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>The ITF Transport Statistics database comprises statistics collected by the International Transport Forum on transport networks, equipment, freight and passenger transport, road safety and spending on infrastructure. Additionally, there are quarterly data covering road traffic, new vehicles, and fuel use. Most of the ITF data series start in 1995. However, the database also includes harmonised time series consolidated as far back as 1970.</t>
   </si>
   <si>
-    <t>oecd_itf_transport_statistics_2022</t>
-  </si>
-  <si>
     <t>1991 - 2020</t>
   </si>
   <si>
@@ -986,6 +983,9 @@
   </si>
   <si>
     <t>Optimisation and Testing</t>
+  </si>
+  <si>
+    <t>itf_indicators</t>
   </si>
 </sst>
 </file>
@@ -1456,24 +1456,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="104.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="9" max="9" width="46.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="104.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>116</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>115</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>119</v>
@@ -1596,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>119</v>
@@ -1628,7 +1628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>119</v>
@@ -1660,7 +1660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>119</v>
@@ -1727,7 +1727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>119</v>
@@ -1759,7 +1759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>119</v>
@@ -1791,7 +1791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>105</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>119</v>
@@ -1855,7 +1855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>119</v>
@@ -1887,7 +1887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>119</v>
@@ -1951,7 +1951,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>76</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>119</v>
@@ -1983,7 +1983,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>88</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>119</v>
@@ -2047,9 +2047,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>121</v>
@@ -2058,10 +2058,10 @@
         <v>119</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>122</v>
@@ -2096,810 +2096,810 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="128.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" t="s">
+        <v>243</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>257</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" t="s">
-        <v>251</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" t="s">
-        <v>251</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" t="s">
-        <v>250</v>
-      </c>
-      <c r="F21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" t="s">
-        <v>250</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" t="s">
-        <v>168</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="F38" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
         <v>147</v>
       </c>
-      <c r="B26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" t="s">
-        <v>256</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>222</v>
-      </c>
-      <c r="B35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>149</v>
-      </c>
-      <c r="B36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>152</v>
       </c>
-      <c r="B39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" t="s">
-        <v>211</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2959,74 +2959,74 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
         <v>218</v>
-      </c>
-      <c r="B7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3044,51 +3044,51 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3112,335 +3112,335 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="7">
         <f>SUM(B3:B1048576)</f>
         <v>3288</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B8">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B14">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B15">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B19">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B22">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B24">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B32">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B34">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B36">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B37">
         <v>234</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B41">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B42">
         <v>260</v>
